--- a/Card.xlsx
+++ b/Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxiaoyu/Desktop/card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B915E2-930C-2146-992E-FBBDAE1AAC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A465B0-8AD4-F14F-9ACC-DFDBE0FD0142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5400" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>kinghelm</t>
-  </si>
-  <si>
-    <t>kinghelm</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -191,15 +188,9 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>KH-FG0.5-H2.0-24PIN</t>
-  </si>
-  <si>
     <t>FPC-SMD_KH-FG0.5-H2.0-24PIN</t>
   </si>
   <si>
-    <t>C2797213</t>
-  </si>
-  <si>
     <t>轻触开关</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -353,6 +344,18 @@
   </si>
   <si>
     <t>STM32L073RBT6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0425-A-A04-002</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDGC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2911807</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -989,7 +992,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1006,7 +1009,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1020,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
@@ -1049,13 +1052,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>11</v>
@@ -1066,22 +1069,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
@@ -1089,22 +1092,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="15">
         <v>1</v>
       </c>
       <c r="F5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
@@ -1112,22 +1115,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="15">
         <v>8</v>
       </c>
       <c r="F6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
@@ -1135,22 +1138,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="15">
         <v>2</v>
       </c>
       <c r="F7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1">
@@ -1158,22 +1161,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="15">
         <v>6</v>
       </c>
       <c r="F8" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1">
@@ -1181,22 +1184,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="15">
         <v>4</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1">
@@ -1204,22 +1207,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="15">
         <v>1</v>
       </c>
       <c r="F10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
@@ -1227,22 +1230,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="E11" s="15">
         <v>1</v>
       </c>
       <c r="F11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
@@ -1250,22 +1253,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="E12" s="15">
         <v>1</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>52</v>
+      <c r="F12" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1">
@@ -1273,22 +1276,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1">
@@ -1296,22 +1299,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1">
@@ -1319,7 +1322,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>6</v>
@@ -1331,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1">
@@ -1342,22 +1345,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="15">
         <v>2</v>
       </c>
       <c r="F16" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
@@ -1365,22 +1368,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="15">
         <v>8</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
@@ -1388,22 +1391,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18" s="15">
         <v>2</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
@@ -1411,22 +1414,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
@@ -1434,22 +1437,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="15">
         <v>2</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
@@ -1457,22 +1460,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
@@ -1480,22 +1483,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="15">
         <v>8</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1">
@@ -1503,22 +1506,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E23" s="15">
         <v>3</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
@@ -1526,22 +1529,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="19">
         <v>1</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1"/>
